--- a/using_python_mrsc_file_download/filtered_updates.xlsx
+++ b/using_python_mrsc_file_download/filtered_updates.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="41">
   <si>
     <t>Details</t>
   </si>
@@ -25,244 +25,118 @@
     <t>Product</t>
   </si>
   <si>
-    <t>CVE-2025-54098</t>
-  </si>
-  <si>
-    <t>CVE-2025-54096</t>
-  </si>
-  <si>
-    <t>CVE-2025-55234</t>
-  </si>
-  <si>
-    <t>CVE-2025-54917</t>
-  </si>
-  <si>
-    <t>CVE-2025-54915</t>
-  </si>
-  <si>
-    <t>CVE-2025-54912</t>
-  </si>
-  <si>
-    <t>CVE-2025-54911</t>
-  </si>
-  <si>
-    <t>CVE-2025-54116</t>
-  </si>
-  <si>
-    <t>CVE-2025-54114</t>
-  </si>
-  <si>
-    <t>CVE-2025-54113</t>
-  </si>
-  <si>
-    <t>CVE-2025-54112</t>
-  </si>
-  <si>
-    <t>CVE-2025-54109</t>
-  </si>
-  <si>
-    <t>CVE-2025-54107</t>
-  </si>
-  <si>
-    <t>CVE-2025-54104</t>
-  </si>
-  <si>
-    <t>CVE-2025-54094</t>
-  </si>
-  <si>
-    <t>CVE-2025-54093</t>
-  </si>
-  <si>
-    <t>CVE-2025-54091</t>
-  </si>
-  <si>
-    <t>CVE-2025-53810</t>
-  </si>
-  <si>
-    <t>CVE-2025-53808</t>
-  </si>
-  <si>
-    <t>CVE-2025-53806</t>
-  </si>
-  <si>
-    <t>CVE-2025-53804</t>
-  </si>
-  <si>
-    <t>CVE-2025-53803</t>
-  </si>
-  <si>
-    <t>CVE-2025-53801</t>
-  </si>
-  <si>
-    <t>CVE-2025-53800</t>
-  </si>
-  <si>
-    <t>CVE-2025-53799</t>
-  </si>
-  <si>
-    <t>CVE-2025-53796</t>
-  </si>
-  <si>
-    <t>CVE-2025-55226</t>
-  </si>
-  <si>
-    <t>CVE-2025-55225</t>
-  </si>
-  <si>
-    <t>CVE-2025-54918</t>
-  </si>
-  <si>
-    <t>CVE-2025-54916</t>
-  </si>
-  <si>
-    <t>CVE-2025-54913</t>
-  </si>
-  <si>
-    <t>CVE-2025-54895</t>
-  </si>
-  <si>
-    <t>CVE-2025-54894</t>
-  </si>
-  <si>
-    <t>CVE-2025-54111</t>
-  </si>
-  <si>
-    <t>CVE-2025-54110</t>
-  </si>
-  <si>
-    <t>CVE-2025-54106</t>
-  </si>
-  <si>
-    <t>CVE-2025-54102</t>
-  </si>
-  <si>
-    <t>CVE-2025-54101</t>
-  </si>
-  <si>
-    <t>CVE-2025-54099</t>
-  </si>
-  <si>
-    <t>CVE-2025-54097</t>
-  </si>
-  <si>
-    <t>CVE-2025-54095</t>
-  </si>
-  <si>
-    <t>CVE-2025-53798</t>
-  </si>
-  <si>
-    <t>CVE-2025-53797</t>
-  </si>
-  <si>
-    <t>CVE-2025-49734</t>
-  </si>
-  <si>
-    <t>CVE-2025-55231</t>
-  </si>
-  <si>
-    <t>CVE-2025-55229</t>
-  </si>
-  <si>
-    <t>CVE-2025-55230</t>
-  </si>
-  <si>
-    <t>Sep 9, 2025</t>
-  </si>
-  <si>
-    <t>Aug 21, 2025</t>
-  </si>
-  <si>
-    <t>Windows Hyper-V Elevation of Privilege Vulnerability New</t>
-  </si>
-  <si>
-    <t>Windows Routing and Remote Access Service (RRAS) Information Disclosure Vulnerability New</t>
-  </si>
-  <si>
-    <t>Windows SMB Elevation of Privilege Vulnerability New</t>
-  </si>
-  <si>
-    <t>MapUrlToZone Security Feature Bypass Vulnerability New</t>
-  </si>
-  <si>
-    <t>Windows Defender Firewall Service Elevation of Privilege Vulnerability New</t>
-  </si>
-  <si>
-    <t>Windows BitLocker Elevation of Privilege Vulnerability New</t>
-  </si>
-  <si>
-    <t>Windows MultiPoint Services Elevation of Privilege Vulnerability New</t>
-  </si>
-  <si>
-    <t>Windows Connected Devices Platform Service (Cdpsvc) Denial of Service Vulnerability New</t>
-  </si>
-  <si>
-    <t>Windows Routing and Remote Access Service (RRAS) Remote Code Execution Vulnerability New</t>
-  </si>
-  <si>
-    <t>Microsoft Virtual Hard Disk Elevation of Privilege Vulnerability New</t>
-  </si>
-  <si>
-    <t>Windows TCP/IP Driver Elevation of Privilege Vulnerability New</t>
-  </si>
-  <si>
-    <t>Windows Kernel-Mode Driver Information Disclosure Vulnerability New</t>
-  </si>
-  <si>
-    <t>Windows Kernel Memory Information Disclosure Vulnerability New</t>
-  </si>
-  <si>
-    <t>Microsoft DWM Core Library Elevation of Privilege Vulnerability New</t>
+    <t>CVE-2026-21253</t>
+  </si>
+  <si>
+    <t>CVE-2026-21513</t>
+  </si>
+  <si>
+    <t>CVE-2026-20846</t>
+  </si>
+  <si>
+    <t>CVE-2026-21222</t>
+  </si>
+  <si>
+    <t>CVE-2026-21231</t>
+  </si>
+  <si>
+    <t>CVE-2026-21238</t>
+  </si>
+  <si>
+    <t>CVE-2026-21239</t>
+  </si>
+  <si>
+    <t>CVE-2026-21244</t>
+  </si>
+  <si>
+    <t>CVE-2026-21249</t>
+  </si>
+  <si>
+    <t>CVE-2026-21251</t>
+  </si>
+  <si>
+    <t>CVE-2026-21255</t>
+  </si>
+  <si>
+    <t>CVE-2026-21508</t>
+  </si>
+  <si>
+    <t>CVE-2026-21525</t>
+  </si>
+  <si>
+    <t>CVE-2026-21510</t>
+  </si>
+  <si>
+    <t>CVE-2026-21533</t>
+  </si>
+  <si>
+    <t>CVE-2026-21236</t>
+  </si>
+  <si>
+    <t>CVE-2026-21235</t>
+  </si>
+  <si>
+    <t>CVE-2026-21246</t>
+  </si>
+  <si>
+    <t>CVE-2026-21247</t>
+  </si>
+  <si>
+    <t>CVE-2026-21248</t>
+  </si>
+  <si>
+    <t>CVE-2026-21519</t>
+  </si>
+  <si>
+    <t>Feb 10, 2026</t>
+  </si>
+  <si>
+    <t>Mailslot File System Elevation of Privilege Vulnerability New</t>
+  </si>
+  <si>
+    <t>MSHTML Framework Security Feature Bypass Vulnerability New</t>
+  </si>
+  <si>
+    <t>GDI+ Denial of Service Vulnerability New</t>
+  </si>
+  <si>
+    <t>Windows Kernel Information Disclosure Vulnerability New</t>
+  </si>
+  <si>
+    <t>Windows Kernel Elevation of Privilege Vulnerability New</t>
+  </si>
+  <si>
+    <t>Windows Ancillary Function Driver for WinSock Elevation of Privilege Vulnerability New</t>
+  </si>
+  <si>
+    <t>Windows Hyper-V Remote Code Execution Vulnerability New</t>
+  </si>
+  <si>
+    <t>Windows NTLM Spoofing Vulnerability New</t>
+  </si>
+  <si>
+    <t>Cluster Client Failover (CCF) Elevation of Privilege Vulnerability New</t>
+  </si>
+  <si>
+    <t>Windows Hyper-V Security Feature Bypass Vulnerability NewRecently updated</t>
+  </si>
+  <si>
+    <t>Windows Storage Elevation of Privilege Vulnerability New</t>
+  </si>
+  <si>
+    <t>Windows Remote Access Connection Manager Denial of Service Vulnerability New</t>
+  </si>
+  <si>
+    <t>Windows Shell Security Feature Bypass Vulnerability New</t>
+  </si>
+  <si>
+    <t>Windows Remote Desktop Services Elevation of Privilege Vulnerability New</t>
   </si>
   <si>
     <t>Windows Graphics Component Elevation of Privilege Vulnerability New</t>
   </si>
   <si>
-    <t>Windows Imaging Component Information Disclosure Vulnerability New</t>
-  </si>
-  <si>
-    <t>Graphics Kernel Remote Code Execution Vulnerability New</t>
-  </si>
-  <si>
-    <t>Windows NTLM Elevation of Privilege Vulnerability New</t>
-  </si>
-  <si>
-    <t>Windows NTFS Remote Code Execution Vulnerability New</t>
-  </si>
-  <si>
-    <t>Windows UI XAML Maps MapControlSettings Elevation of Privilege Vulnerability New</t>
-  </si>
-  <si>
-    <t>SPNEGO Extended Negotiation (NEGOEX) Security Mechanism Elevation of Privilege Vulnerability New</t>
-  </si>
-  <si>
-    <t>Local Security Authority Subsystem Service Elevation of Privilege Vulnerability New</t>
-  </si>
-  <si>
-    <t>Windows UI XAML Phone DatePickerFlyout Elevation of Privilege Vulnerability New</t>
-  </si>
-  <si>
-    <t>Windows Kernel Elevation of Privilege Vulnerability New</t>
-  </si>
-  <si>
-    <t>Windows Connected Devices Platform Service Elevation of Privilege Vulnerability New</t>
-  </si>
-  <si>
-    <t>Windows SMB Client Remote Code Execution Vulnerability New</t>
-  </si>
-  <si>
-    <t>Windows Ancillary Function Driver for WinSock Elevation of Privilege Vulnerability New</t>
-  </si>
-  <si>
-    <t>PowerShell Direct Elevation of Privilege Vulnerability NewRecently updated</t>
-  </si>
-  <si>
-    <t>Windows Storage-based Management Service Remote Code Execution Vulnerability NewRecently updated</t>
-  </si>
-  <si>
-    <t>Windows Certificate Spoofing Vulnerability NewRecently updated</t>
-  </si>
-  <si>
-    <t>Windows MBT Transport Driver Elevation of Privilege Vulnerability NewRecently updated</t>
+    <t>Desktop Window Manager Elevation of Privilege Vulnerability New</t>
   </si>
 </sst>
 </file>
@@ -633,7 +507,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C48"/>
+  <dimension ref="A1:C22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -655,10 +529,10 @@
         <v>3</v>
       </c>
       <c r="B2" t="s">
-        <v>50</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>52</v>
+        <v>25</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -666,10 +540,10 @@
         <v>4</v>
       </c>
       <c r="B3" t="s">
-        <v>50</v>
+        <v>24</v>
       </c>
       <c r="C3" t="s">
-        <v>53</v>
+        <v>26</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -677,10 +551,10 @@
         <v>5</v>
       </c>
       <c r="B4" t="s">
-        <v>50</v>
+        <v>24</v>
       </c>
       <c r="C4" t="s">
-        <v>54</v>
+        <v>27</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -688,10 +562,10 @@
         <v>6</v>
       </c>
       <c r="B5" t="s">
-        <v>50</v>
+        <v>24</v>
       </c>
       <c r="C5" t="s">
-        <v>55</v>
+        <v>28</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -699,10 +573,10 @@
         <v>7</v>
       </c>
       <c r="B6" t="s">
-        <v>50</v>
+        <v>24</v>
       </c>
       <c r="C6" t="s">
-        <v>56</v>
+        <v>29</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -710,10 +584,10 @@
         <v>8</v>
       </c>
       <c r="B7" t="s">
-        <v>50</v>
+        <v>24</v>
       </c>
       <c r="C7" t="s">
-        <v>57</v>
+        <v>30</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -721,10 +595,10 @@
         <v>9</v>
       </c>
       <c r="B8" t="s">
-        <v>50</v>
+        <v>24</v>
       </c>
       <c r="C8" t="s">
-        <v>57</v>
+        <v>29</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -732,10 +606,10 @@
         <v>10</v>
       </c>
       <c r="B9" t="s">
-        <v>50</v>
+        <v>24</v>
       </c>
       <c r="C9" t="s">
-        <v>58</v>
+        <v>31</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -743,10 +617,10 @@
         <v>11</v>
       </c>
       <c r="B10" t="s">
-        <v>50</v>
+        <v>24</v>
       </c>
       <c r="C10" t="s">
-        <v>59</v>
+        <v>32</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -754,10 +628,10 @@
         <v>12</v>
       </c>
       <c r="B11" t="s">
-        <v>50</v>
+        <v>24</v>
       </c>
       <c r="C11" t="s">
-        <v>60</v>
+        <v>33</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -765,10 +639,10 @@
         <v>13</v>
       </c>
       <c r="B12" t="s">
-        <v>50</v>
+        <v>24</v>
       </c>
       <c r="C12" t="s">
-        <v>61</v>
+        <v>34</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -776,10 +650,10 @@
         <v>14</v>
       </c>
       <c r="B13" t="s">
-        <v>50</v>
+        <v>24</v>
       </c>
       <c r="C13" t="s">
-        <v>56</v>
+        <v>35</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -787,10 +661,10 @@
         <v>15</v>
       </c>
       <c r="B14" t="s">
-        <v>50</v>
+        <v>24</v>
       </c>
       <c r="C14" t="s">
-        <v>55</v>
+        <v>36</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -798,10 +672,10 @@
         <v>16</v>
       </c>
       <c r="B15" t="s">
-        <v>50</v>
+        <v>24</v>
       </c>
       <c r="C15" t="s">
-        <v>56</v>
+        <v>37</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -809,10 +683,10 @@
         <v>17</v>
       </c>
       <c r="B16" t="s">
-        <v>50</v>
+        <v>24</v>
       </c>
       <c r="C16" t="s">
-        <v>56</v>
+        <v>38</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -820,10 +694,10 @@
         <v>18</v>
       </c>
       <c r="B17" t="s">
-        <v>50</v>
+        <v>24</v>
       </c>
       <c r="C17" t="s">
-        <v>62</v>
+        <v>30</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -831,10 +705,10 @@
         <v>19</v>
       </c>
       <c r="B18" t="s">
-        <v>50</v>
+        <v>24</v>
       </c>
       <c r="C18" t="s">
-        <v>52</v>
+        <v>39</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -842,10 +716,10 @@
         <v>20</v>
       </c>
       <c r="B19" t="s">
-        <v>50</v>
+        <v>24</v>
       </c>
       <c r="C19" t="s">
-        <v>56</v>
+        <v>39</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -853,10 +727,10 @@
         <v>21</v>
       </c>
       <c r="B20" t="s">
-        <v>50</v>
+        <v>24</v>
       </c>
       <c r="C20" t="s">
-        <v>56</v>
+        <v>31</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -864,10 +738,10 @@
         <v>22</v>
       </c>
       <c r="B21" t="s">
-        <v>50</v>
+        <v>24</v>
       </c>
       <c r="C21" t="s">
-        <v>53</v>
+        <v>31</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -875,296 +749,10 @@
         <v>23</v>
       </c>
       <c r="B22" t="s">
-        <v>50</v>
+        <v>24</v>
       </c>
       <c r="C22" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3">
-      <c r="A23" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="B23" t="s">
-        <v>50</v>
-      </c>
-      <c r="C23" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3">
-      <c r="A24" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="B24" t="s">
-        <v>50</v>
-      </c>
-      <c r="C24" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3">
-      <c r="A25" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="B25" t="s">
-        <v>50</v>
-      </c>
-      <c r="C25" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3">
-      <c r="A26" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="B26" t="s">
-        <v>50</v>
-      </c>
-      <c r="C26" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3">
-      <c r="A27" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="B27" t="s">
-        <v>50</v>
-      </c>
-      <c r="C27" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3">
-      <c r="A28" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="B28" t="s">
-        <v>50</v>
-      </c>
-      <c r="C28" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3">
-      <c r="A29" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="B29" t="s">
-        <v>50</v>
-      </c>
-      <c r="C29" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3">
-      <c r="A30" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="B30" t="s">
-        <v>50</v>
-      </c>
-      <c r="C30" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3">
-      <c r="A31" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="B31" t="s">
-        <v>50</v>
-      </c>
-      <c r="C31" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3">
-      <c r="A32" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="B32" t="s">
-        <v>50</v>
-      </c>
-      <c r="C32" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3">
-      <c r="A33" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="B33" t="s">
-        <v>50</v>
-      </c>
-      <c r="C33" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3">
-      <c r="A34" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="B34" t="s">
-        <v>50</v>
-      </c>
-      <c r="C34" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3">
-      <c r="A35" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="B35" t="s">
-        <v>50</v>
-      </c>
-      <c r="C35" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3">
-      <c r="A36" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="B36" t="s">
-        <v>50</v>
-      </c>
-      <c r="C36" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3">
-      <c r="A37" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="B37" t="s">
-        <v>50</v>
-      </c>
-      <c r="C37" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3">
-      <c r="A38" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="B38" t="s">
-        <v>50</v>
-      </c>
-      <c r="C38" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3">
-      <c r="A39" s="2" t="s">
         <v>40</v>
-      </c>
-      <c r="B39" t="s">
-        <v>50</v>
-      </c>
-      <c r="C39" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3">
-      <c r="A40" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="B40" t="s">
-        <v>50</v>
-      </c>
-      <c r="C40" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3">
-      <c r="A41" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="B41" t="s">
-        <v>50</v>
-      </c>
-      <c r="C41" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3">
-      <c r="A42" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="B42" t="s">
-        <v>50</v>
-      </c>
-      <c r="C42" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3">
-      <c r="A43" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="B43" t="s">
-        <v>50</v>
-      </c>
-      <c r="C43" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3">
-      <c r="A44" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="B44" t="s">
-        <v>50</v>
-      </c>
-      <c r="C44" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3">
-      <c r="A45" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="B45" t="s">
-        <v>50</v>
-      </c>
-      <c r="C45" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3">
-      <c r="A46" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="B46" t="s">
-        <v>51</v>
-      </c>
-      <c r="C46" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3">
-      <c r="A47" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="B47" t="s">
-        <v>51</v>
-      </c>
-      <c r="C47" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3">
-      <c r="A48" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="B48" t="s">
-        <v>51</v>
-      </c>
-      <c r="C48" t="s">
-        <v>82</v>
       </c>
     </row>
   </sheetData>
@@ -1190,32 +778,6 @@
     <hyperlink ref="A20" r:id="rId19"/>
     <hyperlink ref="A21" r:id="rId20"/>
     <hyperlink ref="A22" r:id="rId21"/>
-    <hyperlink ref="A23" r:id="rId22"/>
-    <hyperlink ref="A24" r:id="rId23"/>
-    <hyperlink ref="A25" r:id="rId24"/>
-    <hyperlink ref="A26" r:id="rId25"/>
-    <hyperlink ref="A27" r:id="rId26"/>
-    <hyperlink ref="A28" r:id="rId27"/>
-    <hyperlink ref="A29" r:id="rId28"/>
-    <hyperlink ref="A30" r:id="rId29"/>
-    <hyperlink ref="A31" r:id="rId30"/>
-    <hyperlink ref="A32" r:id="rId31"/>
-    <hyperlink ref="A33" r:id="rId32"/>
-    <hyperlink ref="A34" r:id="rId33"/>
-    <hyperlink ref="A35" r:id="rId34"/>
-    <hyperlink ref="A36" r:id="rId35"/>
-    <hyperlink ref="A37" r:id="rId36"/>
-    <hyperlink ref="A38" r:id="rId37"/>
-    <hyperlink ref="A39" r:id="rId38"/>
-    <hyperlink ref="A40" r:id="rId39"/>
-    <hyperlink ref="A41" r:id="rId40"/>
-    <hyperlink ref="A42" r:id="rId41"/>
-    <hyperlink ref="A43" r:id="rId42"/>
-    <hyperlink ref="A44" r:id="rId43"/>
-    <hyperlink ref="A45" r:id="rId44"/>
-    <hyperlink ref="A46" r:id="rId45"/>
-    <hyperlink ref="A47" r:id="rId46"/>
-    <hyperlink ref="A48" r:id="rId47"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
